--- a/data/motivations.xlsx
+++ b/data/motivations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6A0EF5-4F51-4B9A-892B-FDEC1C94DFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918CCEC-5C1F-D346-BDFE-35A88B0CF44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="motivations" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="DatiEsterni_1" localSheetId="2" hidden="1">questions!$A$1:$G$5</definedName>
     <definedName name="DatiEsterni_2" localSheetId="1" hidden="1">parameters!$A$1:$G$4</definedName>
-    <definedName name="DatiEsterni_3" localSheetId="0" hidden="1">motivations!$A$1:$B$5</definedName>
+    <definedName name="DatiEsterni_3" localSheetId="0" hidden="1">motivations!$A$1:$B$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -152,41 +152,137 @@
     <t>Column2</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>mot1</t>
-  </si>
-  <si>
-    <t>motivation_1</t>
-  </si>
-  <si>
-    <t>mot2</t>
-  </si>
-  <si>
-    <t>motivation_2</t>
-  </si>
-  <si>
-    <t>mot3</t>
-  </si>
-  <si>
-    <t>motivation_3</t>
+    <t> The language has no Case morphology on articles/demonstratives/nouns</t>
+  </si>
+  <si>
+    <t> The language has no prenominal Adjectives/Numerals</t>
+  </si>
+  <si>
+    <t> The language has articles</t>
+  </si>
+  <si>
+    <t> The language has no morphemes systematically attaching to a lexical root to indicate group reading (i.e. group markers)</t>
+  </si>
+  <si>
+    <t> The language does not display any singular vs. non-singular alternations on nouns</t>
+  </si>
+  <si>
+    <t> The language has Grammaticalized Number</t>
+  </si>
+  <si>
+    <t> The language has no definite Genitives (i.e. non-adpositional Genitives whose definiteness is inherited by the whole DP)</t>
+  </si>
+  <si>
+    <t> The language has definite Genitives but they only occur at the boundary of a nominal structure</t>
+  </si>
+  <si>
+    <t> The language has no definite affixes</t>
+  </si>
+  <si>
+    <t> The language has no prenominal adjectives</t>
+  </si>
+  <si>
+    <t> The language has head-final DPs</t>
+  </si>
+  <si>
+    <t> There are no possessives occurring in argument phrases with no nominal head</t>
+  </si>
+  <si>
+    <t> The language has no subject-verb agreement</t>
+  </si>
+  <si>
+    <t> The language has no articles</t>
+  </si>
+  <si>
+    <t> The language has no classifiers</t>
+  </si>
+  <si>
+    <t> The language has no prenominal Argument adjectives</t>
+  </si>
+  <si>
+    <t> The language has no ergative/absolutive alignment in clauses </t>
+  </si>
+  <si>
+    <t> The language has no nominative/accusative alignment in clauses</t>
+  </si>
+  <si>
+    <t> The language has no robust case morphology on nouns</t>
+  </si>
+  <si>
+    <t> The language has no non-adpositional Genitives</t>
+  </si>
+  <si>
+    <t> The language has no non-adpositional Genitives with dedicated case morphology</t>
+  </si>
+  <si>
+    <t> The language no structured Adjectives</t>
+  </si>
+  <si>
+    <t> The language has no Genitive adpositions/linkers</t>
+  </si>
+  <si>
+    <t> The language has no adpositions</t>
+  </si>
+  <si>
+    <t> The language has no Genitive adpositions</t>
+  </si>
+  <si>
+    <t> The language has no linkers</t>
+  </si>
+  <si>
+    <t> The language has no definite suffixes</t>
+  </si>
+  <si>
+    <t> The language has no multiple prenominal structured adjectives</t>
+  </si>
+  <si>
+    <t> The language has no prenominal possessives</t>
+  </si>
+  <si>
+    <t> The language has no reduced relative clauses</t>
+  </si>
+  <si>
+    <t> The language has no postnominal adjectives</t>
+  </si>
+  <si>
+    <t> The language has no productive morphological strategies to generate argument adjectives from proper names and/or common nouns</t>
+  </si>
+  <si>
+    <t> Postnominal adjectives are realized as reduced relative clauses</t>
+  </si>
+  <si>
+    <t> The language has no phrase-initial determiners</t>
+  </si>
+  <si>
+    <t> Structured adjectives cannot be fronted to the left of D (or numerals): [(D) Num … Adj …] &gt; [Adj (D) Num…]</t>
+  </si>
+  <si>
+    <t> There are no phrase-initial enclitic definite articles</t>
+  </si>
+  <si>
+    <t> The language has no special forms for possessives modifying singular kinship nouns</t>
+  </si>
+  <si>
+    <t> Cardinal expressions do no agree in gender with the noun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,18 +307,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -310,11 +400,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}" name="motivations" displayName="motivations" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}" name="motivations" displayName="motivations" ref="A1:B40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B40" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -324,12 +414,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}" name="parameters" displayName="parameters" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{943E732B-797E-4A4E-AE88-4AC36D5AA185}" uniqueName="4" name="position" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C3AD8CCC-CD6B-4003-A8E2-AA344034E95B}" uniqueName="5" name="is_active" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{CFC3CDD1-EF4F-4F41-869A-AD1039F6927F}" uniqueName="7" name="warning_default" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -340,12 +430,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -615,17 +705,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5AE9B-B0DE-4568-9CE7-651E0C237278}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -633,36 +725,316 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -679,18 +1051,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,14 +1085,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
@@ -729,21 +1101,21 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3">
@@ -752,21 +1124,21 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4">
@@ -775,7 +1147,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
@@ -796,18 +1168,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -853,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -876,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -899,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -936,7 +1308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/motivations.xlsx
+++ b/data/motivations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5CCF8-EA02-EE42-9DC9-984DD5BC21E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60673867-2BE2-2A47-94F3-B5C32521E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" activeTab="1" xr2:uid="{B67BEC25-A09F-6647-951C-C5B5039DEEED}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{B67BEC25-A09F-6647-951C-C5B5039DEEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="264">
   <si>
     <t>The language has no personal/relative pronouns</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>CGR_Qd</t>
-  </si>
-  <si>
-    <t>There are no prenominal adjectives</t>
   </si>
   <si>
     <t>The language is D-final</t>
@@ -802,9 +799,6 @@
     <t>GUN_Qc, ACM_Qa, ACM_Qb, APO_Qa, TSA_Qa</t>
   </si>
   <si>
-    <t>GUN_Qa, GUN_Qd, GGH_Qa, NGL_Qa, APO_Qb</t>
-  </si>
-  <si>
     <t>FGP_Qf, PCL_Qa</t>
   </si>
   <si>
@@ -833,6 +827,9 @@
   </si>
   <si>
     <t>The language exhibits no agreement in gender within nominal structures</t>
+  </si>
+  <si>
+    <t>GUN_Qa, GUN_Qd, GGH_Qa, NGL_Qa, APO_Qb, NWD_Qa</t>
   </si>
 </sst>
 </file>
@@ -848,12 +845,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -870,7 +873,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -889,10 +892,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09982C0-D494-314C-84F8-66ABC75471E6}" name="Tabella1" displayName="Tabella1" ref="A1:B143" totalsRowShown="0">
-  <autoFilter ref="A1:B143" xr:uid="{D09982C0-D494-314C-84F8-66ABC75471E6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B143">
-    <sortCondition ref="B1:B143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09982C0-D494-314C-84F8-66ABC75471E6}" name="Tabella1" displayName="Tabella1" ref="A1:B142" totalsRowShown="0">
+  <autoFilter ref="A1:B142" xr:uid="{D09982C0-D494-314C-84F8-66ABC75471E6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B142">
+    <sortCondition ref="B1:B142"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DC207FD3-4A04-8F4D-8C20-96F51869F71F}" name="Colonna1"/>
@@ -1221,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C851DE-FA80-C846-85EA-707BD5B75E3F}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1307,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1480,103 +1483,103 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
@@ -1584,423 +1587,423 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>228</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>230</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>231</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>231</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
@@ -2008,31 +2011,31 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
@@ -2040,31 +2043,31 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -2072,31 +2075,31 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -2104,39 +2107,39 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
         <v>28</v>
@@ -2144,15 +2147,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -2160,23 +2163,23 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -2184,23 +2187,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
         <v>28</v>
@@ -2208,15 +2211,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
@@ -2224,15 +2227,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -2240,23 +2243,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -2264,287 +2267,287 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" t="s">
         <v>163</v>
-      </c>
-      <c r="B155" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" t="s">
         <v>167</v>
-      </c>
-      <c r="B159" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s">
         <v>28</v>
@@ -2552,31 +2555,31 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
@@ -2584,239 +2587,239 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B199" t="s">
         <v>36</v>
@@ -2824,138 +2827,138 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2965,128 +2968,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B598DE-BEE8-E94D-96AD-5030CDDB70E8}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A104" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="101.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
         <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3107,74 +3110,74 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,34 +3190,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3227,58 +3230,58 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3291,10 +3294,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3307,10 +3310,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3323,90 +3326,90 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3419,10 +3422,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3435,106 +3438,106 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
         <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>239</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3563,10 +3566,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3579,63 +3582,63 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3643,23 +3646,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
@@ -3667,18 +3670,18 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3691,39 +3694,39 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>246</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
@@ -3731,50 +3734,50 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3787,63 +3790,63 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3851,42 +3854,42 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>88</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,90 +3902,90 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>238</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>73</v>
+        <v>237</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>88</v>
-      </c>
-      <c r="B121" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3995,26 +3998,26 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>238</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4027,66 +4030,66 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>65</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>258</v>
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4094,31 +4097,23 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/data/motivations.xlsx
+++ b/data/motivations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60673867-2BE2-2A47-94F3-B5C32521E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0570C7A-D707-C743-A3B8-DC34A69B6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{B67BEC25-A09F-6647-951C-C5B5039DEEED}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <t>DGD_Qa</t>
   </si>
   <si>
-    <t>DGD_Qa, DGD_Qsa</t>
-  </si>
-  <si>
     <t>Partitive indefinite meaning is not expressed through adpositional alternations on bare head nouns</t>
   </si>
   <si>
@@ -523,12 +520,6 @@
     <t>PNP_Qd</t>
   </si>
   <si>
-    <t>PNP_Qa, PNP_Qsa</t>
-  </si>
-  <si>
-    <t>PNP_Qsa</t>
-  </si>
-  <si>
     <t>Adpositions precede their complements (i.e. are realized as prepositions)</t>
   </si>
   <si>
@@ -559,9 +550,6 @@
     <t>The article occurs as the first word or affixed to the first word, and is followed by some other overt element belonging to the nominal phrase</t>
   </si>
   <si>
-    <t>NUD_Qsa</t>
-  </si>
-  <si>
     <t>The language has no prenominal adjectives</t>
   </si>
   <si>
@@ -760,9 +748,6 @@
     <t>PNP_Qb, PNP_QSb</t>
   </si>
   <si>
-    <t>DGD_Qa, DGD_Qsa, DNN_Qa, DNN_Qb, DNN_Qc, NUD_Qa, NUD_Qsa</t>
-  </si>
-  <si>
     <t>SPK_Qa, DPQ_Qa</t>
   </si>
   <si>
@@ -830,6 +815,21 @@
   </si>
   <si>
     <t>GUN_Qa, GUN_Qd, GGH_Qa, NGL_Qa, APO_Qb, NWD_Qa</t>
+  </si>
+  <si>
+    <t>PNP_QSa</t>
+  </si>
+  <si>
+    <t>NUD_QSa</t>
+  </si>
+  <si>
+    <t>DGD_Qa, DGD_QSa</t>
+  </si>
+  <si>
+    <t>PNP_Qa, PNP_QSa</t>
+  </si>
+  <si>
+    <t>DGD_Qa, DGD_QSa, DNN_Qa, DNN_Qb, DNN_Qc, NUD_Qa, NUD_QSa</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C851DE-FA80-C846-85EA-707BD5B75E3F}">
   <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1486,7 +1486,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1683,79 +1683,79 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -1763,15 +1763,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -1787,79 +1787,79 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
@@ -1867,23 +1867,23 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
         <v>28</v>
@@ -1891,23 +1891,23 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>28</v>
@@ -1915,95 +1915,95 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
@@ -2011,31 +2011,31 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
@@ -2043,31 +2043,31 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -2075,31 +2075,31 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
         <v>50</v>
@@ -2115,31 +2115,31 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>28</v>
@@ -2147,15 +2147,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -2163,23 +2163,23 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -2187,23 +2187,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
         <v>28</v>
@@ -2211,15 +2211,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
@@ -2227,15 +2227,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>28</v>
@@ -2243,23 +2243,23 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -2267,231 +2267,231 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
         <v>65</v>
@@ -2499,39 +2499,39 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B163" t="s">
         <v>65</v>
@@ -2539,15 +2539,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
         <v>28</v>
@@ -2555,31 +2555,31 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
@@ -2587,239 +2587,239 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
         <v>36</v>
@@ -2827,138 +2827,138 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2982,26 +2982,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,34 +3014,34 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,15 +3070,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -3086,10 +3086,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,10 +3110,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,58 +3126,58 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,34 +3190,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,58 +3230,58 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,10 +3310,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,90 +3326,90 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,106 +3438,106 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3566,10 +3566,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,47 +3590,47 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3646,23 +3646,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
@@ -3670,18 +3670,18 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3694,39 +3694,39 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
@@ -3734,50 +3734,50 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3798,55 +3798,55 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3854,23 +3854,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
         <v>50</v>
@@ -3878,18 +3878,18 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
         <v>60</v>
@@ -3910,42 +3910,42 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3958,34 +3958,34 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3998,10 +3998,10 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4030,18 +4030,18 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
